--- a/libro2.xlsx
+++ b/libro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanparido/Documents/xls2json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD67F74-4E44-A148-8548-4FEF04B63C31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C62C94B-D234-0B4A-9B5F-7772998B29F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{A3974503-9906-164E-ADBD-81484A49C942}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Team</t>
   </si>
@@ -64,6 +64,48 @@
   </si>
   <si>
     <t>TELEFONICA BR</t>
+  </si>
+  <si>
+    <t>CLARO BRASIL</t>
+  </si>
+  <si>
+    <t>SIGMA</t>
+  </si>
+  <si>
+    <t>CLARO CHILE</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>CLLARO ARGENTINA</t>
+  </si>
+  <si>
+    <t>TELEFONICA CO</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>CLARO ARGENTINA</t>
+  </si>
+  <si>
+    <t>ZINA INDIA</t>
+  </si>
+  <si>
+    <t>OI BRASIL</t>
+  </si>
+  <si>
+    <t>SPARTAN</t>
+  </si>
+  <si>
+    <t>Spartan</t>
+  </si>
+  <si>
+    <t>MELIUS</t>
+  </si>
+  <si>
+    <t>Unity</t>
   </si>
 </sst>
 </file>
@@ -427,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA55899-1938-B54A-9F3A-565B09C66763}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,62 +561,215 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>8</v>
+      </c>
+    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>6.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="D16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
